--- a/SymptomBotDB.xlsx
+++ b/SymptomBotDB.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$109</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="877">
   <si>
     <t>Condition</t>
   </si>
@@ -102,24 +102,6 @@
     <t>With Chills</t>
   </si>
   <si>
-    <t>Stomach/Abdominal Pain</t>
-  </si>
-  <si>
-    <t>With Weight Loss</t>
-  </si>
-  <si>
-    <t>Chronic Cough</t>
-  </si>
-  <si>
-    <t>With Fever</t>
-  </si>
-  <si>
-    <t>Watery Stools</t>
-  </si>
-  <si>
-    <t>with fever</t>
-  </si>
-  <si>
     <t>Ear, Nose and Throat</t>
   </si>
   <si>
@@ -321,9 +303,6 @@
     <t>Asthma</t>
   </si>
   <si>
-    <t>Wheezing</t>
-  </si>
-  <si>
     <t>wheezing,chest tightness,shortness of breath, cough</t>
   </si>
   <si>
@@ -348,9 +327,6 @@
     <t>Urine or Genitals</t>
   </si>
   <si>
-    <t>Sudden Weight Loss</t>
-  </si>
-  <si>
     <t>Frequent urination, unusual thirst, fatigue, blurred vision, slow wound healing</t>
   </si>
   <si>
@@ -372,9 +348,6 @@
     <t>Food Poisoning</t>
   </si>
   <si>
-    <t>Vomiting &amp; Diarrhea</t>
-  </si>
-  <si>
     <t>vomiting,diarrhea,stomach cramps</t>
   </si>
   <si>
@@ -396,9 +369,6 @@
     <t>Hepatitis B</t>
   </si>
   <si>
-    <t>Yellow Eyes</t>
-  </si>
-  <si>
     <t>dark urine, pale stools, itching,fatigue</t>
   </si>
   <si>
@@ -450,9 +420,6 @@
     <t>Men’s Health</t>
   </si>
   <si>
-    <t>Urination Changes</t>
-  </si>
-  <si>
     <t>Bone Pain (at Night), Weak Urinary Stream</t>
   </si>
   <si>
@@ -504,9 +471,6 @@
     <t>Testicular Torsion</t>
   </si>
   <si>
-    <t>Sudden Severe  Groin Pain</t>
-  </si>
-  <si>
     <t>Sudden/severe testicular pain, lower abdominal pain</t>
   </si>
   <si>
@@ -531,9 +495,6 @@
     <t>Urinary Tract Infection</t>
   </si>
   <si>
-    <t>Foul Smell/Burning Sensation</t>
-  </si>
-  <si>
     <t>burning urination,frequent urge, fever</t>
   </si>
   <si>
@@ -558,9 +519,6 @@
     <t>Skin Infection</t>
   </si>
   <si>
-    <t>pus</t>
-  </si>
-  <si>
     <t>red,swollen,warm skin with pus</t>
   </si>
   <si>
@@ -579,9 +537,6 @@
     <t>Ringworm</t>
   </si>
   <si>
-    <t>Itchy</t>
-  </si>
-  <si>
     <t>scaly, itchy circular rash with clear area in between</t>
   </si>
   <si>
@@ -657,9 +612,6 @@
     <t>Eyes, Ears &amp; Throat</t>
   </si>
   <si>
-    <t>With Discharge</t>
-  </si>
-  <si>
     <t>red eyes, eye discharge, itchy eyes</t>
   </si>
   <si>
@@ -729,9 +681,6 @@
     <t>Bronchitis</t>
   </si>
   <si>
-    <t>With Mucus</t>
-  </si>
-  <si>
     <t>persistent cough, chest discomfort, mucus production</t>
   </si>
   <si>
@@ -753,9 +702,6 @@
     <t>Anemia</t>
   </si>
   <si>
-    <t>Fatigue and Weakness</t>
-  </si>
-  <si>
     <t>persistent fatigue, pale skin, shortness of breath</t>
   </si>
   <si>
@@ -777,9 +723,6 @@
     <t>Peptic Ulcer Disease</t>
   </si>
   <si>
-    <t>Burning Type Pain</t>
-  </si>
-  <si>
     <t>stomach pain, nausea, bloating</t>
   </si>
   <si>
@@ -801,9 +744,6 @@
     <t>COPD (Chronic Obstructive Pulmonary Disease)</t>
   </si>
   <si>
-    <t>Shortness of breath</t>
-  </si>
-  <si>
     <t>chronic cough, shortness of breath, wheezing</t>
   </si>
   <si>
@@ -825,9 +765,6 @@
     <t>Verigo</t>
   </si>
   <si>
-    <t>Dizziness or Balance Problems</t>
-  </si>
-  <si>
     <t>spinning sensation, dizziness, loss of balance</t>
   </si>
   <si>
@@ -849,9 +786,6 @@
     <t>Transient Ischemic Attack (Mini Stroke)</t>
   </si>
   <si>
-    <t>Sudden Numbness or Speech Changes</t>
-  </si>
-  <si>
     <t>Emergency &amp; Trauma</t>
   </si>
   <si>
@@ -882,15 +816,9 @@
     <t>Hypoglycemia</t>
   </si>
   <si>
-    <t>Shaking, Confusion, or Sudden Weakness</t>
-  </si>
-  <si>
     <t>Hypotension</t>
   </si>
   <si>
-    <t>Lightheadedness or Fainting</t>
-  </si>
-  <si>
     <t>shaking, dizziness, confusion</t>
   </si>
   <si>
@@ -933,9 +861,6 @@
     <t>Gastritis</t>
   </si>
   <si>
-    <t>Upper Abdominal Pain</t>
-  </si>
-  <si>
     <t>Upper stomach pain, bloating, nausea and vomiting</t>
   </si>
   <si>
@@ -957,9 +882,6 @@
     <t>GERD</t>
   </si>
   <si>
-    <t>Acid Reflux</t>
-  </si>
-  <si>
     <t>heartburn,acid reflux</t>
   </si>
   <si>
@@ -1020,9 +942,6 @@
     <t>Constipation</t>
   </si>
   <si>
-    <t>Hard Stools</t>
-  </si>
-  <si>
     <t>hard stool,infrequent bowel movements</t>
   </si>
   <si>
@@ -1044,9 +963,6 @@
     <t>Irritable Bowel Syndrome</t>
   </si>
   <si>
-    <t>Alternating Diarrhea/Constipation</t>
-  </si>
-  <si>
     <t>abdominal cramps,bloating,alternating constipation and diarrhea</t>
   </si>
   <si>
@@ -1092,9 +1008,6 @@
     <t>Kidney Stones</t>
   </si>
   <si>
-    <t>Flank Pain or Blood in Urine</t>
-  </si>
-  <si>
     <t>dehydration, family history, high-protein diet</t>
   </si>
   <si>
@@ -1110,9 +1023,6 @@
     <t>Liver Cirrhosis</t>
   </si>
   <si>
-    <t>Swollen With Yellow Eyes</t>
-  </si>
-  <si>
     <t>confusion, abdominal distension, dark urine, fatigue or yellowing of eyes</t>
   </si>
   <si>
@@ -1227,9 +1137,6 @@
     <t>Hyperthyroidism</t>
   </si>
   <si>
-    <t>Metabolism</t>
-  </si>
-  <si>
     <t>Weight loss, fast heartbeat, heat intolerance</t>
   </si>
   <si>
@@ -1272,9 +1179,6 @@
     <t>Prostatitis</t>
   </si>
   <si>
-    <t>Prostate</t>
-  </si>
-  <si>
     <t>Pelvic pain, painful urination, urinary urgency</t>
   </si>
   <si>
@@ -1317,9 +1221,6 @@
     <t>Varicocele</t>
   </si>
   <si>
-    <t>Testicular Swelling</t>
-  </si>
-  <si>
     <t>Testicular swelling, visible veins, dull scrotal discomfort</t>
   </si>
   <si>
@@ -1341,9 +1242,6 @@
     <t>Balanitis</t>
   </si>
   <si>
-    <t>Penile Irritation or Infection</t>
-  </si>
-  <si>
     <t>Redness of glans, penile swelling, discharge</t>
   </si>
   <si>
@@ -1368,9 +1266,6 @@
     <t>Women’s Health</t>
   </si>
   <si>
-    <t>Menstrual Cycle</t>
-  </si>
-  <si>
     <t>Heavy periods, prolonged bleeding, large clots</t>
   </si>
   <si>
@@ -1389,9 +1284,6 @@
     <t>Pelvic Inflammatory Disease</t>
   </si>
   <si>
-    <t>Pelvic Pain or Infection</t>
-  </si>
-  <si>
     <t>Pelvic pain, abnormal discharge, pain during sex</t>
   </si>
   <si>
@@ -1416,33 +1308,18 @@
     <t>Ovarian Cyst</t>
   </si>
   <si>
-    <t>Lower Abdominal Pain</t>
-  </si>
-  <si>
     <t>Fibroids</t>
   </si>
   <si>
-    <t>Irregular and Painful Periods</t>
-  </si>
-  <si>
     <t>Menopause</t>
   </si>
   <si>
-    <t>Hot Flashes</t>
-  </si>
-  <si>
     <t>Ectopic Pregnancy</t>
   </si>
   <si>
-    <t>With Missed Period</t>
-  </si>
-  <si>
     <t>Breast Lump</t>
   </si>
   <si>
-    <t>growth in breast</t>
-  </si>
-  <si>
     <t>Migraine</t>
   </si>
   <si>
@@ -1455,24 +1332,15 @@
     <t>Stroke</t>
   </si>
   <si>
-    <t>Face Drooping/Speech Difficulty</t>
-  </si>
-  <si>
     <t>Epilepsy</t>
   </si>
   <si>
-    <t>Convulsion</t>
-  </si>
-  <si>
     <t>Depression</t>
   </si>
   <si>
     <t>Mood or Sleep</t>
   </si>
   <si>
-    <t>Mental Health</t>
-  </si>
-  <si>
     <t>Pelvic pain, bloating, menstrual changes</t>
   </si>
   <si>
@@ -1665,9 +1533,6 @@
     <t>Anxiety</t>
   </si>
   <si>
-    <t>Rapid Heartbeat</t>
-  </si>
-  <si>
     <t>Restlessness, rapid heartbeat, worry, tension, difficulty concentrating</t>
   </si>
   <si>
@@ -1710,9 +1575,6 @@
     <t>Sleep Apnea</t>
   </si>
   <si>
-    <t>Loud Snoring</t>
-  </si>
-  <si>
     <t>Loud snoring, gasping for air during sleep, excessive daytime sleepiness</t>
   </si>
   <si>
@@ -1734,9 +1596,6 @@
     <t>Night Terrors</t>
   </si>
   <si>
-    <t>Screaming Episodes</t>
-  </si>
-  <si>
     <t>Sudden waking in terror, sweating, confusion, no memory of dream</t>
   </si>
   <si>
@@ -1758,9 +1617,6 @@
     <t>Bedwetting</t>
   </si>
   <si>
-    <t>Unrinating while asleep</t>
-  </si>
-  <si>
     <t>Involuntary urination during sleep beyond age 5</t>
   </si>
   <si>
@@ -1830,9 +1686,6 @@
     <t>Lactose Intolerance</t>
   </si>
   <si>
-    <t>Food Sensitivity</t>
-  </si>
-  <si>
     <t>Bloating, gas, diarrhea after dairy</t>
   </si>
   <si>
@@ -1854,9 +1707,6 @@
     <t>Celiac Disease</t>
   </si>
   <si>
-    <t>Triggered by Gluten (Bread, Indomie, etc...)</t>
-  </si>
-  <si>
     <t>Bloating, weight loss, diarrhea, fatigue after eating gluten</t>
   </si>
   <si>
@@ -1878,18 +1728,12 @@
     <t>Allergic Rhinitis</t>
   </si>
   <si>
-    <t>Sneezing &amp; Itchy Eyes</t>
-  </si>
-  <si>
     <t>Sneezing, runny or blocked nose, itchy eyes</t>
   </si>
   <si>
     <t>Do your symptoms get worse during specific seasons or around dust, pets, or pollen?</t>
   </si>
   <si>
-    <t>Do allergy medicines like antihistamines help reduce your symptoms?</t>
-  </si>
-  <si>
     <t>Asthma, eczema, family history of allergies</t>
   </si>
   <si>
@@ -1905,9 +1749,6 @@
     <t>Sinusitis</t>
   </si>
   <si>
-    <t>Face/Head Pain</t>
-  </si>
-  <si>
     <t>Facial pressure, nasal congestion, thick mucus, headache</t>
   </si>
   <si>
@@ -2025,9 +1866,6 @@
     <t>Breast Cancer</t>
   </si>
   <si>
-    <t>Breast</t>
-  </si>
-  <si>
     <t>Breast lump, nipple discharge, skin changes, dimpling, nipple retraction</t>
   </si>
   <si>
@@ -2049,9 +1887,6 @@
     <t>Sexually Transmitted Infections</t>
   </si>
   <si>
-    <t>Sores or Discharge</t>
-  </si>
-  <si>
     <t>Unusual discharge, genital sores, burning with urination</t>
   </si>
   <si>
@@ -2073,9 +1908,6 @@
     <t>Cervical Cancer</t>
   </si>
   <si>
-    <t>Abnormal Bleeding</t>
-  </si>
-  <si>
     <t>Irregular bleeding, pelvic pain, foul-smelling discharge</t>
   </si>
   <si>
@@ -2097,9 +1929,6 @@
     <t>Yeast Infection</t>
   </si>
   <si>
-    <t>White Discharge</t>
-  </si>
-  <si>
     <t>Itching, thick white discharge, vaginal irritation</t>
   </si>
   <si>
@@ -2121,9 +1950,6 @@
     <t>Bacterial Vaginosis</t>
   </si>
   <si>
-    <t>Fishy Odor</t>
-  </si>
-  <si>
     <t>Fishy-smelling discharge, thin gray-white fluid, mild itching</t>
   </si>
   <si>
@@ -2235,9 +2061,6 @@
     <t>Pharyngitis</t>
   </si>
   <si>
-    <t>Sore Throat</t>
-  </si>
-  <si>
     <t>Sore throat, pain when swallowing, scratchy throat, sometimes with fever or swollen lymph nodes</t>
   </si>
   <si>
@@ -2259,9 +2082,6 @@
     <t>Laryngitis</t>
   </si>
   <si>
-    <t>Voice/Throat Inflammation</t>
-  </si>
-  <si>
     <t>Hoarse voice, dry or sore throat, weak voice, urge to clear throat, worsens with voice use</t>
   </si>
   <si>
@@ -2283,9 +2103,6 @@
     <t>Tonsillar Abscess</t>
   </si>
   <si>
-    <t>Deep Neck Infection</t>
-  </si>
-  <si>
     <t>Severe sore throat (often one-sided), painful swallowing, muffled voice (“hot potato voice”), fever, difficulty opening mouth</t>
   </si>
   <si>
@@ -2307,9 +2124,6 @@
     <t>Toothache</t>
   </si>
   <si>
-    <t>Oral Pain</t>
-  </si>
-  <si>
     <t>Localized tooth pain, sensitivity to hot or cold, swelling or redness around a tooth</t>
   </si>
   <si>
@@ -2331,9 +2145,6 @@
     <t>Gingivitis</t>
   </si>
   <si>
-    <t>Gum Disease</t>
-  </si>
-  <si>
     <t>Red, swollen gums that may bleed when brushing, bad breath</t>
   </si>
   <si>
@@ -2355,9 +2166,6 @@
     <t>Heat Stroke</t>
   </si>
   <si>
-    <t>Heat-related Illness</t>
-  </si>
-  <si>
     <t>High body temperature, confusion, headache, dizziness, rapid heartbeat, nausea, loss of consciousness</t>
   </si>
   <si>
@@ -2376,18 +2184,9 @@
     <t>Heat stroke is a medical emergency. If emergency services are unavailable, arrange immediate transport to the nearest hospital. While en route, move the person to a cool place, remove excess clothing, and apply cool, wet cloths or ice packs. Do not give fluids if they are unconscious or vomiting.</t>
   </si>
   <si>
-    <t>Painful Periods</t>
-  </si>
-  <si>
-    <t>Irregular Periods</t>
-  </si>
-  <si>
     <t>Vaginal Bulge</t>
   </si>
   <si>
-    <t>Voice</t>
-  </si>
-  <si>
     <t>Would you like to visit an ENT clinic or  urgent care facility near you?</t>
   </si>
   <si>
@@ -2487,9 +2286,6 @@
     <t>Hernia</t>
   </si>
   <si>
-    <t>Abdominal Disorders</t>
-  </si>
-  <si>
     <t>Bulge or lump in the abdomen or groin, discomfort or pain especially when lifting or straining</t>
   </si>
   <si>
@@ -2538,9 +2334,6 @@
     <t>Warts</t>
   </si>
   <si>
-    <t>Skin Lesions</t>
-  </si>
-  <si>
     <t>Small, rough, raised skin bumps, usually painless but can be itchy or bleed if irritated</t>
   </si>
   <si>
@@ -2685,21 +2478,6 @@
     <t>Persistent warts or abnormal cells can increase cancer risk. Seek medical care promptly if symptoms worsen or screening results are concerning.</t>
   </si>
   <si>
-    <t>Pain or Vision Loss</t>
-  </si>
-  <si>
-    <t>Dark Urine</t>
-  </si>
-  <si>
-    <t>Animal attack</t>
-  </si>
-  <si>
-    <t>Itchy Skin</t>
-  </si>
-  <si>
-    <t>growth in genitals</t>
-  </si>
-  <si>
     <t>Genital warts, unusual bumps in genital area</t>
   </si>
   <si>
@@ -2715,17 +2493,173 @@
     <t>Trouble falling asleep, staying asleep, waking up too early</t>
   </si>
   <si>
-    <t>Chemical/Toxic Metal Exposure</t>
-  </si>
-  <si>
-    <t>Air Poisoning</t>
+    <t>Normal Pregnancy</t>
+  </si>
+  <si>
+    <t>Menstrual/Period Issues</t>
+  </si>
+  <si>
+    <t>Missed period, nausea, breast tenderness, fatigue, frequent urination, mood changes</t>
+  </si>
+  <si>
+    <t>Is there a chance you could be pregnant based on recent sexual activity?</t>
+  </si>
+  <si>
+    <t>Have you noticed any changes that feel different from your usual cycle or body rhythm?</t>
+  </si>
+  <si>
+    <t>Bleeding, Severe Pain, Dizziness</t>
+  </si>
+  <si>
+    <t>Take a home pregnancy test or speak to a provider for confirmation</t>
+  </si>
+  <si>
+    <t>Seek medical review if there is pain, heavy bleeding, or fainting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach/Abdominal </t>
+  </si>
+  <si>
+    <t>Recurring Fever/Fatigue</t>
+  </si>
+  <si>
+    <t>Cough with Fever or Chest Pain</t>
+  </si>
+  <si>
+    <t>Frequent/Watery Stools</t>
+  </si>
+  <si>
+    <t>Rash with Fever</t>
+  </si>
+  <si>
+    <t>Wheezing or Shortness of breath</t>
+  </si>
+  <si>
+    <t>Frequent Urination/Weight Loss</t>
+  </si>
+  <si>
+    <t>with Jaundice/Body Pain</t>
+  </si>
+  <si>
+    <t>Urination changes</t>
+  </si>
+  <si>
+    <t>Swelling/Sudden pain in testicle</t>
+  </si>
+  <si>
+    <t>Urination Issues</t>
+  </si>
+  <si>
+    <t>Painful or with Pus</t>
+  </si>
+  <si>
+    <t>Ring-Shaped/Scaly Rash</t>
+  </si>
+  <si>
+    <t>Itchy Skin or Scalp</t>
+  </si>
+  <si>
+    <t>Red or Itchy Eyes</t>
+  </si>
+  <si>
+    <t>Cough or Mucus or Congestion</t>
+  </si>
+  <si>
+    <t>Persistent Fatigue/Dizziness</t>
+  </si>
+  <si>
+    <t>Heartburn or Stomach Pain</t>
+  </si>
+  <si>
+    <t>Dizziness/Balance Problems</t>
+  </si>
+  <si>
+    <t>Sudden Weakness or Collapse</t>
+  </si>
+  <si>
+    <t>Hard/Infrequent Stools</t>
+  </si>
+  <si>
+    <t>Bowel Pattern Changes</t>
+  </si>
+  <si>
+    <t>Yellow Eyes/Abdominal Swelling</t>
+  </si>
+  <si>
+    <t>Weight Loss/Palpitations/Anxiety</t>
+  </si>
+  <si>
+    <t>Fatigue/Weight Gain</t>
+  </si>
+  <si>
+    <t>Painful urination</t>
+  </si>
+  <si>
+    <t>Penile Irritation/Rash</t>
+  </si>
+  <si>
+    <t>Pelvic Pain or Discomfort</t>
+  </si>
+  <si>
+    <t>Breast Lump/Changes</t>
+  </si>
+  <si>
+    <t>Low Mood/Loss of Interest</t>
+  </si>
+  <si>
+    <t>Restlessness/Racing Thoughts</t>
+  </si>
+  <si>
+    <t>Loud Snoring/Daytime fatigue</t>
+  </si>
+  <si>
+    <t>Night Screaming Episodes</t>
+  </si>
+  <si>
+    <t>Toxic Exposure</t>
+  </si>
+  <si>
+    <t>Food Sensitivity/Bowel Issues</t>
+  </si>
+  <si>
+    <t>Genital Issues</t>
+  </si>
+  <si>
+    <t>Vaginal Discharge/Odor</t>
+  </si>
+  <si>
+    <t>Voice or Throat Changes</t>
+  </si>
+  <si>
+    <t>Heat or Environmental Emergency</t>
+  </si>
+  <si>
+    <t>Bites and Envenomation</t>
+  </si>
+  <si>
+    <t>Air Exposure</t>
+  </si>
+  <si>
+    <t>Skin Growths</t>
+  </si>
+  <si>
+    <t>Eye Trauma</t>
+  </si>
+  <si>
+    <t>Dental Pain</t>
+  </si>
+  <si>
+    <t>Swollen/Bleeding Gums</t>
+  </si>
+  <si>
+    <t>Do your symptoms come and go, or are they constant?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2741,13 +2675,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2757,7 +2684,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2780,20 +2707,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE5E5E5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2817,9 +2735,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3125,13 +3042,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ108"/>
+  <dimension ref="A1:AJ109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3200,25 +3117,25 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
@@ -3229,66 +3146,66 @@
         <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>831</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:36" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>27</v>
+      <c r="C4" s="6" t="s">
+        <v>832</v>
       </c>
       <c r="D4" s="7">
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -3324,31 +3241,31 @@
         <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>833</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
@@ -3359,31 +3276,31 @@
         <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>29</v>
+        <v>833</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
@@ -3394,31 +3311,31 @@
         <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>834</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
@@ -3429,31 +3346,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>833</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
@@ -3464,31 +3381,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>835</v>
       </c>
       <c r="D9" s="6">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
@@ -3499,491 +3416,491 @@
         <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6">
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="K10" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>831</v>
       </c>
       <c r="D11" s="6">
         <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>99</v>
+        <v>836</v>
       </c>
       <c r="D12" s="6">
         <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>108</v>
+        <v>837</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>116</v>
+        <v>834</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>124</v>
+        <v>838</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>142</v>
+        <v>839</v>
       </c>
       <c r="D17" s="6">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>160</v>
+        <v>840</v>
       </c>
       <c r="D19" s="6">
         <v>3</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>169</v>
+        <v>841</v>
       </c>
       <c r="D20" s="6">
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>178</v>
+        <v>842</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>535</v>
+        <v>491</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>185</v>
+        <v>843</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>185</v>
+        <v>844</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>20</v>
@@ -3995,2969 +3912,3004 @@
         <v>3</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>211</v>
+        <v>845</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D26" s="6">
         <v>2</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>235</v>
+        <v>846</v>
       </c>
       <c r="D28" s="6">
         <v>3</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>243</v>
+        <v>847</v>
       </c>
       <c r="D29" s="6">
         <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>251</v>
+        <v>848</v>
       </c>
       <c r="D30" s="6">
         <v>2</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>259</v>
+        <v>836</v>
       </c>
       <c r="D31" s="6">
         <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>267</v>
+        <v>849</v>
       </c>
       <c r="D32" s="6">
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>275</v>
+        <v>850</v>
       </c>
       <c r="D33" s="6">
         <v>3</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>286</v>
+        <v>850</v>
       </c>
       <c r="D34" s="6">
         <v>3</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>288</v>
+        <v>850</v>
       </c>
       <c r="D35" s="6">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>303</v>
+        <v>848</v>
       </c>
       <c r="D36" s="6">
         <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>311</v>
+        <v>848</v>
       </c>
       <c r="D37" s="6">
         <v>1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>332</v>
+        <v>851</v>
       </c>
       <c r="D40" s="6">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="J40" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>340</v>
+      <c r="C41" s="6" t="s">
+        <v>852</v>
       </c>
       <c r="D41" s="6">
         <v>2</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="H41" s="4" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="D42" s="6">
         <v>3</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="G42" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="I42" s="5" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>26</v>
+        <v>831</v>
       </c>
       <c r="D43" s="6">
         <v>2</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>356</v>
+        <v>100</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>841</v>
       </c>
       <c r="D44" s="6">
         <v>3</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>362</v>
+        <v>853</v>
       </c>
       <c r="D45" s="6">
         <v>3</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>303</v>
+        <v>831</v>
       </c>
       <c r="D46" s="6">
         <v>3</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="D47" s="6">
         <v>2</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>401</v>
+        <v>854</v>
       </c>
       <c r="D48" s="6">
         <v>2</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>401</v>
+        <v>855</v>
       </c>
       <c r="D49" s="6">
         <v>1</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>416</v>
+        <v>856</v>
       </c>
       <c r="D50" s="6">
         <v>2</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>416</v>
+        <v>839</v>
       </c>
       <c r="D51" s="6">
         <v>1</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>431</v>
+        <v>840</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>439</v>
+        <v>857</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>895</v>
+        <v>821</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>448</v>
+        <v>824</v>
       </c>
       <c r="D54" s="6">
         <v>2</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>536</v>
+        <v>492</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>455</v>
+        <v>858</v>
       </c>
       <c r="D55" s="6">
         <v>3</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>464</v>
+        <v>858</v>
       </c>
       <c r="D56" s="6">
         <v>2</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>541</v>
+        <v>497</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>466</v>
+        <v>824</v>
       </c>
       <c r="D57" s="6">
         <v>2</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>543</v>
+        <v>499</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>468</v>
+        <v>824</v>
       </c>
       <c r="D58" s="6">
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>495</v>
+        <v>451</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>470</v>
+        <v>858</v>
       </c>
       <c r="D59" s="6">
         <v>3</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>500</v>
+        <v>456</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>472</v>
+        <v>413</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>859</v>
       </c>
       <c r="D60" s="6">
         <v>3</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>504</v>
+        <v>460</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>540</v>
+        <v>496</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>507</v>
+        <v>463</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>509</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="D61" s="6">
         <v>2</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>510</v>
+        <v>466</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>537</v>
+        <v>493</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="D62" s="6">
         <v>1</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>538</v>
+        <v>494</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>477</v>
+        <v>850</v>
       </c>
       <c r="D63" s="6">
         <v>3</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>520</v>
+        <v>476</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>479</v>
+        <v>850</v>
       </c>
       <c r="D64" s="6">
         <v>3</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>525</v>
+        <v>481</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>527</v>
+        <v>483</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>545</v>
+        <v>501</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>528</v>
+        <v>484</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>482</v>
+        <v>860</v>
       </c>
       <c r="D65" s="6">
         <v>2</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>530</v>
+        <v>486</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>532</v>
+        <v>488</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>534</v>
+        <v>490</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>547</v>
+        <v>861</v>
       </c>
       <c r="D66" s="6">
         <v>2</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>549</v>
+        <v>504</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>554</v>
+        <v>509</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>555</v>
+        <v>510</v>
       </c>
       <c r="D67" s="6">
         <v>2</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>896</v>
+        <v>822</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>557</v>
+        <v>512</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>560</v>
+        <v>515</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>562</v>
+        <v>862</v>
       </c>
       <c r="D68" s="6">
         <v>2</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>563</v>
+        <v>517</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>564</v>
+        <v>518</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>567</v>
+        <v>521</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>568</v>
+        <v>522</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>569</v>
+        <v>523</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>570</v>
+        <v>863</v>
       </c>
       <c r="D69" s="6">
         <v>1</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>572</v>
+        <v>525</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>574</v>
+        <v>527</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>577</v>
+        <v>530</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>578</v>
+        <v>841</v>
       </c>
       <c r="D70" s="6">
         <v>2</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>579</v>
+        <v>531</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>581</v>
+        <v>533</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>582</v>
+        <v>534</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>583</v>
+        <v>535</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>584</v>
+        <v>536</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>585</v>
+        <v>537</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>586</v>
+        <v>538</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D71" s="6">
         <v>3</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>587</v>
+        <v>539</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>588</v>
+        <v>540</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>589</v>
+        <v>541</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>590</v>
+        <v>542</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>592</v>
+        <v>544</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>625</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>593</v>
+        <v>545</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="C72" t="s">
-        <v>897</v>
+        <v>538</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>864</v>
       </c>
       <c r="D72" s="6">
         <v>3</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>595</v>
+        <v>547</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>596</v>
+        <v>548</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>597</v>
+        <v>549</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>598</v>
+        <v>550</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>599</v>
+        <v>551</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>600</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>601</v>
+        <v>553</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>602</v>
+        <v>865</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>603</v>
+        <v>554</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>604</v>
+        <v>555</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>605</v>
+        <v>556</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>606</v>
+        <v>557</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>607</v>
+        <v>558</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>608</v>
+        <v>559</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>609</v>
+        <v>560</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>610</v>
+        <v>865</v>
       </c>
       <c r="D74" s="6">
         <v>2</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>611</v>
+        <v>561</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>618</v>
+        <v>845</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>621</v>
+        <v>569</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>876</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>622</v>
+        <v>570</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>623</v>
+        <v>571</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>624</v>
+        <v>572</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>626</v>
+        <v>574</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>627</v>
+        <v>846</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>628</v>
+        <v>575</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>629</v>
+        <v>576</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>630</v>
+        <v>577</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>631</v>
+        <v>578</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>632</v>
+        <v>579</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>633</v>
+        <v>580</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>634</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>635</v>
+        <v>582</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>636</v>
+        <v>583</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>637</v>
+        <v>584</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>638</v>
+        <v>585</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>639</v>
+        <v>586</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>640</v>
+        <v>587</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>641</v>
+        <v>588</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>642</v>
+        <v>589</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>643</v>
+        <v>590</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D78" s="6">
         <v>2</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>644</v>
+        <v>591</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>645</v>
+        <v>592</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>646</v>
+        <v>593</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>647</v>
+        <v>594</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>648</v>
+        <v>595</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>649</v>
+        <v>596</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>650</v>
+        <v>597</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>651</v>
+        <v>598</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D79" s="6">
         <v>2</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>652</v>
+        <v>599</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>653</v>
+        <v>600</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>654</v>
+        <v>601</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>655</v>
+        <v>602</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>656</v>
+        <v>603</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>657</v>
+        <v>604</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>658</v>
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>659</v>
+        <v>606</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D80" s="6">
         <v>2</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>660</v>
+        <v>607</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>661</v>
+        <v>608</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>662</v>
+        <v>609</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>663</v>
+        <v>610</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>664</v>
+        <v>611</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>665</v>
+        <v>612</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>658</v>
+        <v>605</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>666</v>
+        <v>613</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>667</v>
+        <v>859</v>
       </c>
       <c r="D81" s="6">
         <v>3</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>668</v>
+        <v>614</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>669</v>
+        <v>615</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>670</v>
+        <v>616</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>671</v>
+        <v>617</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>672</v>
+        <v>618</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>673</v>
+        <v>619</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>674</v>
+        <v>620</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>675</v>
+        <v>100</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>866</v>
       </c>
       <c r="D82" s="6">
         <v>2</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>676</v>
+        <v>621</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>677</v>
+        <v>622</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>678</v>
+        <v>623</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>679</v>
+        <v>624</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>680</v>
+        <v>625</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>681</v>
+        <v>626</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>707</v>
+        <v>649</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>682</v>
+        <v>627</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>683</v>
+        <v>824</v>
       </c>
       <c r="D83" s="6">
         <v>3</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>685</v>
+        <v>629</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>686</v>
+        <v>630</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>687</v>
+        <v>631</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>688</v>
+        <v>632</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>689</v>
+        <v>633</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>706</v>
+        <v>648</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>690</v>
+        <v>634</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>691</v>
+        <v>867</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>692</v>
+        <v>635</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>693</v>
+        <v>636</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>694</v>
+        <v>637</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>695</v>
+        <v>638</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>696</v>
+        <v>639</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>697</v>
+        <v>640</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>698</v>
+        <v>641</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>699</v>
+        <v>867</v>
       </c>
       <c r="D85" s="6">
         <v>2</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>700</v>
+        <v>642</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>701</v>
+        <v>643</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>702</v>
+        <v>644</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>703</v>
+        <v>645</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>704</v>
+        <v>646</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>705</v>
+        <v>647</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>708</v>
+        <v>650</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>784</v>
+        <v>858</v>
       </c>
       <c r="D86" s="6">
         <v>2</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>709</v>
+        <v>651</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>710</v>
+        <v>652</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>711</v>
+        <v>653</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>712</v>
+        <v>654</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>713</v>
+        <v>655</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>714</v>
+        <v>656</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>715</v>
+        <v>657</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>785</v>
+        <v>413</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>824</v>
       </c>
       <c r="D87" s="6">
         <v>2</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>716</v>
+        <v>658</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>717</v>
+        <v>659</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>718</v>
+        <v>660</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>719</v>
+        <v>661</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>720</v>
+        <v>662</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>721</v>
+        <v>663</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>722</v>
+        <v>664</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>786</v>
+        <v>720</v>
       </c>
       <c r="D88" s="6">
         <v>2</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>723</v>
+        <v>665</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>724</v>
+        <v>666</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>725</v>
+        <v>667</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>726</v>
+        <v>668</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>727</v>
+        <v>669</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>728</v>
+        <v>670</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>729</v>
+        <v>671</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>787</v>
+        <v>868</v>
       </c>
       <c r="D89" s="6">
         <v>2</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>730</v>
+        <v>672</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>731</v>
+        <v>673</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>732</v>
+        <v>674</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>733</v>
+        <v>675</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>734</v>
+        <v>676</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>735</v>
+        <v>677</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>736</v>
+        <v>678</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>737</v>
+        <v>26</v>
       </c>
       <c r="D90" s="6">
         <v>2</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>740</v>
+        <v>681</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>741</v>
+        <v>682</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>742</v>
+        <v>683</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>743</v>
+        <v>684</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>744</v>
+        <v>685</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>745</v>
+        <v>868</v>
       </c>
       <c r="D91" s="6">
         <v>1</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>746</v>
+        <v>686</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>747</v>
+        <v>687</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>748</v>
+        <v>688</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>749</v>
+        <v>689</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>750</v>
+        <v>690</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>751</v>
+        <v>691</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>752</v>
+        <v>692</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>753</v>
+        <v>26</v>
       </c>
       <c r="D92" s="6">
         <v>3</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>754</v>
+        <v>693</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>755</v>
+        <v>694</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>756</v>
+        <v>695</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>757</v>
+        <v>696</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>758</v>
+        <v>697</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>759</v>
+        <v>698</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>788</v>
+        <v>721</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>760</v>
+        <v>699</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>761</v>
+        <v>254</v>
+      </c>
+      <c r="C93" t="s">
+        <v>874</v>
       </c>
       <c r="D93" s="6">
         <v>1</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>762</v>
+        <v>700</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>763</v>
+        <v>701</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>764</v>
+        <v>702</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>765</v>
+        <v>703</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>766</v>
+        <v>704</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>767</v>
+        <v>705</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>789</v>
+        <v>722</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>768</v>
+        <v>706</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>769</v>
+        <v>254</v>
+      </c>
+      <c r="C94" t="s">
+        <v>875</v>
       </c>
       <c r="D94" s="6">
         <v>1</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>770</v>
+        <v>707</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>771</v>
+        <v>708</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>772</v>
+        <v>709</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>773</v>
+        <v>710</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>774</v>
+        <v>711</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>775</v>
+        <v>712</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>789</v>
+        <v>722</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>776</v>
+        <v>713</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>777</v>
+        <v>869</v>
       </c>
       <c r="D95" s="6">
         <v>3</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>778</v>
+        <v>714</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>779</v>
+        <v>715</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>780</v>
+        <v>716</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>781</v>
+        <v>717</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>782</v>
+        <v>718</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>783</v>
+        <v>719</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>790</v>
+        <v>723</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>791</v>
+        <v>724</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="D96" s="6">
         <v>3</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>792</v>
+        <v>725</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>793</v>
+        <v>726</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>794</v>
+        <v>727</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>795</v>
+        <v>728</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>796</v>
+        <v>729</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>797</v>
+        <v>730</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>798</v>
+        <v>731</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>799</v>
+        <v>732</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="D97" s="6">
         <v>3</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>801</v>
+        <v>734</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>802</v>
+        <v>735</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>804</v>
+        <v>737</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>805</v>
+        <v>738</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>798</v>
+        <v>731</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>806</v>
+        <v>739</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>586</v>
+        <v>538</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>898</v>
+        <v>871</v>
       </c>
       <c r="D98" s="6">
         <v>3</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>807</v>
+        <v>740</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>808</v>
+        <v>741</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>809</v>
+        <v>742</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>810</v>
+        <v>743</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>811</v>
+        <v>744</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>812</v>
+        <v>745</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>798</v>
+        <v>731</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>813</v>
+        <v>746</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>28</v>
+        <v>836</v>
       </c>
       <c r="D99" s="6">
         <v>2</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>814</v>
+        <v>747</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>815</v>
+        <v>748</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>816</v>
+        <v>749</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>817</v>
+        <v>750</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>818</v>
+        <v>751</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>819</v>
+        <v>752</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>820</v>
+        <v>753</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="D100" s="6">
         <v>2</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>822</v>
+        <v>754</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>823</v>
+        <v>755</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>824</v>
+        <v>756</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>825</v>
+        <v>757</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>826</v>
+        <v>758</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>827</v>
+        <v>759</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>828</v>
+        <v>760</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>829</v>
+        <v>761</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>830</v>
+        <v>762</v>
       </c>
       <c r="D101" s="6">
         <v>3</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>831</v>
+        <v>763</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>832</v>
+        <v>764</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>833</v>
+        <v>765</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>834</v>
+        <v>766</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>835</v>
+        <v>767</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>836</v>
+        <v>768</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>798</v>
+        <v>731</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>837</v>
+        <v>769</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>838</v>
+        <v>872</v>
       </c>
       <c r="D102" s="6">
         <v>1</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>839</v>
+        <v>770</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>840</v>
+        <v>771</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>841</v>
+        <v>772</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>842</v>
+        <v>773</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>843</v>
+        <v>774</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>844</v>
+        <v>775</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>893</v>
+        <v>819</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>890</v>
+        <v>844</v>
       </c>
       <c r="D103" s="6">
         <v>1</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>846</v>
+        <v>777</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>847</v>
+        <v>778</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>848</v>
+        <v>779</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>849</v>
+        <v>780</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>850</v>
+        <v>781</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>851</v>
+        <v>782</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>894</v>
+        <v>820</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>852</v>
+        <v>783</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>890</v>
+        <v>844</v>
       </c>
       <c r="D104" s="6">
         <v>2</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>853</v>
+        <v>784</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>854</v>
+        <v>785</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>855</v>
+        <v>786</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>856</v>
+        <v>787</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>857</v>
+        <v>788</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>858</v>
+        <v>789</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>894</v>
+        <v>820</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>859</v>
+        <v>790</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>890</v>
+        <v>844</v>
       </c>
       <c r="D105" s="6">
         <v>2</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>860</v>
+        <v>791</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>861</v>
+        <v>792</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>862</v>
+        <v>793</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>863</v>
+        <v>794</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>864</v>
+        <v>795</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>865</v>
+        <v>796</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>894</v>
+        <v>820</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>866</v>
+        <v>797</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="D106" s="6">
         <v>3</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>867</v>
+        <v>798</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>868</v>
+        <v>799</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>869</v>
+        <v>800</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>870</v>
+        <v>801</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>871</v>
+        <v>802</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>872</v>
+        <v>803</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>873</v>
+        <v>804</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>874</v>
+        <v>805</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>888</v>
+        <v>853</v>
       </c>
       <c r="D107" s="6">
         <v>2</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>875</v>
+        <v>806</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>876</v>
+        <v>807</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>877</v>
+        <v>808</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>878</v>
+        <v>809</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>879</v>
+        <v>810</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>880</v>
+        <v>811</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>881</v>
+        <v>812</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>891</v>
+        <v>866</v>
       </c>
       <c r="D108" s="6">
         <v>2</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>892</v>
+        <v>818</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>882</v>
+        <v>813</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>883</v>
+        <v>814</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>884</v>
+        <v>815</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>885</v>
+        <v>816</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>886</v>
+        <v>817</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>893</v>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>823</v>
+      </c>
+      <c r="B109" t="s">
+        <v>413</v>
+      </c>
+      <c r="C109" t="s">
+        <v>824</v>
+      </c>
+      <c r="D109" s="6">
+        <v>1</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="I109" t="s">
+        <v>829</v>
+      </c>
+      <c r="J109" t="s">
+        <v>830</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K108"/>
+  <autoFilter ref="A1:K109"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
